--- a/data/trans_dic/P08_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P08_2_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1185461081227893</v>
+        <v>0.1130707631269391</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1159782897984033</v>
+        <v>0.1176290800652868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1301103953620711</v>
+        <v>0.1361416262542041</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.10654744619357</v>
+        <v>0.1104206251917049</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1419326354930311</v>
+        <v>0.1439312830015083</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2152754997379742</v>
+        <v>0.2148763582288508</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2172274976652934</v>
+        <v>0.2231146041374087</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.153325349129044</v>
+        <v>0.1545769949694459</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1416157308119471</v>
+        <v>0.1377444472711914</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.17913883757195</v>
+        <v>0.1772455583530805</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1915909157006717</v>
+        <v>0.1908994667094431</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1434730777049289</v>
+        <v>0.1398653079140152</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2056535124473949</v>
+        <v>0.2019700639529573</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2034277645845331</v>
+        <v>0.2094414828228608</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2267339755644726</v>
+        <v>0.233122293307656</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.178179121236322</v>
+        <v>0.1833651953286932</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2397926536757546</v>
+        <v>0.246028115388816</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3212427580545866</v>
+        <v>0.3259559471946212</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3228206154067815</v>
+        <v>0.3314355064773333</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2173646975718113</v>
+        <v>0.2177090585319526</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2079403278060876</v>
+        <v>0.204380677149292</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2488859450499657</v>
+        <v>0.2506679192595515</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.263047843616615</v>
+        <v>0.2625121158046451</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.186667976972109</v>
+        <v>0.1865959877078181</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1181805791699412</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.185836039993574</v>
+        <v>0.1858360399935741</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2455810964119144</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1054831296867551</v>
+        <v>0.108366218907834</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1195074271669236</v>
+        <v>0.1162432786596382</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09391865482930242</v>
+        <v>0.09036627088358982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1491562506251349</v>
+        <v>0.153022262482994</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2104613552494704</v>
+        <v>0.210327339020439</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2211866736385633</v>
+        <v>0.2227169412969912</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1793988835117393</v>
+        <v>0.1785526754224709</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2173494509261858</v>
+        <v>0.2166101280344769</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1684707644088358</v>
+        <v>0.1675531068074252</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1795903734217872</v>
+        <v>0.1808480745703394</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1439355058881475</v>
+        <v>0.1453766046889951</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1939387363057271</v>
+        <v>0.1925261087140145</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1723561233564764</v>
+        <v>0.1726241655392133</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1894294510891258</v>
+        <v>0.1887356340813329</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1511353113863214</v>
+        <v>0.1500965752663684</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2226933745230646</v>
+        <v>0.2255480670201697</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2859204605680971</v>
+        <v>0.2878657875389279</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3005279283560673</v>
+        <v>0.2970433730961619</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2537475197366578</v>
+        <v>0.2528409236106953</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2778459216375218</v>
+        <v>0.2771259430888883</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2159493238678116</v>
+        <v>0.216696197778032</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2338109485510575</v>
+        <v>0.2328770333382244</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1923456581318316</v>
+        <v>0.192383083552962</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2400551922568195</v>
+        <v>0.2407341758105325</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08151059139279133</v>
+        <v>0.08351848457301084</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.122139133693018</v>
+        <v>0.1240174893871806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09569195198315135</v>
+        <v>0.1004830384094657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1114166518583402</v>
+        <v>0.1126587092943328</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2080602280039371</v>
+        <v>0.2114625871776933</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1898634948218849</v>
+        <v>0.1852744597553419</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1457252246083753</v>
+        <v>0.1478852608133159</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1643140277568684</v>
+        <v>0.1640181300155402</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1576802991868189</v>
+        <v>0.1573342443122945</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1663827375555711</v>
+        <v>0.1653049623442885</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1336917220107604</v>
+        <v>0.1327506981671251</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1434969541913344</v>
+        <v>0.1454775876156594</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1515357774087912</v>
+        <v>0.1587054296493265</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2071397577376605</v>
+        <v>0.2099762211676076</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1680858364415834</v>
+        <v>0.1689568050197154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1766297887018498</v>
+        <v>0.1769452319920166</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3047522131168846</v>
+        <v>0.3008501205549026</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2824478101621123</v>
+        <v>0.2809996424967092</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2392118153548982</v>
+        <v>0.2400158903962211</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2278281968682135</v>
+        <v>0.2279006299261735</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2178009715040176</v>
+        <v>0.216441090425198</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2264302785439555</v>
+        <v>0.2279448547064794</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.192049306151228</v>
+        <v>0.1902463866848728</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1918003268645289</v>
+        <v>0.1924185592755318</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.265216468802496</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2120831213814923</v>
+        <v>0.2120831213814922</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1810679838190961</v>
@@ -1105,7 +1105,7 @@
         <v>0.2096964924515846</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1934852062880314</v>
+        <v>0.1934852062880313</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09519422868062491</v>
+        <v>0.09674179392363685</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1215953115147783</v>
+        <v>0.1217074553647453</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1166295730817348</v>
+        <v>0.117209855699876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.136439175981575</v>
+        <v>0.1340622306540625</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1908141698868261</v>
+        <v>0.1889987435937069</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.26131689148606</v>
+        <v>0.2672172556963121</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2208861626745151</v>
+        <v>0.2211309245763501</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1798473219498276</v>
+        <v>0.1821312589806955</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.156362911190314</v>
+        <v>0.1560151966506594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2052495467839187</v>
+        <v>0.2086350521592536</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1808745815159849</v>
+        <v>0.1802620701570398</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1688370108756248</v>
+        <v>0.1673902249722242</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1640717378721977</v>
+        <v>0.1692140101452568</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2019747832959316</v>
+        <v>0.2011599190187147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1915413232154163</v>
+        <v>0.1926902135764709</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2218889959217393</v>
+        <v>0.2194359656174815</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2731052412539695</v>
+        <v>0.2783110657611048</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3593827041422268</v>
+        <v>0.36387355065161</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3133603436613833</v>
+        <v>0.316208347769355</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2440938978593663</v>
+        <v>0.244719555602684</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2099105468028613</v>
+        <v>0.2096789780698637</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2673392884826393</v>
+        <v>0.2689948944353994</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2415945883884455</v>
+        <v>0.2435809784515802</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.220273611761775</v>
+        <v>0.2196298891342305</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1266113701689474</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1143848174392835</v>
+        <v>0.1143848174392834</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1866437010848642</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05798355585689337</v>
+        <v>0.05531982474311568</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.124005914543054</v>
+        <v>0.1259836038735223</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08785873881091393</v>
+        <v>0.08573233134230114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08389947800550404</v>
+        <v>0.08521966686026082</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1387878767487782</v>
+        <v>0.1378835575029407</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2414552970174463</v>
+        <v>0.242506630615989</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1605214489379811</v>
+        <v>0.1682632688322051</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2188622403290266</v>
+        <v>0.2154746003617709</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1078436545169681</v>
+        <v>0.1099490450515919</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2002191411158715</v>
+        <v>0.2018981289276117</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1394159350358236</v>
+        <v>0.1413687121333428</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1646358164351585</v>
+        <v>0.1635600896598604</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1368714160243254</v>
+        <v>0.1370600516188633</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2386769095120874</v>
+        <v>0.2362747721125091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1746267281395257</v>
+        <v>0.1753532446018313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1545223545219954</v>
+        <v>0.151089041045334</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2506884113336315</v>
+        <v>0.2525664406482802</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3704741183693347</v>
+        <v>0.371868761263314</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2766834018631797</v>
+        <v>0.2783410850379223</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2974246910931782</v>
+        <v>0.2958021587925535</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1758890280039499</v>
+        <v>0.1776373774512257</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2819876095707337</v>
+        <v>0.2864050542683554</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2118342498689673</v>
+        <v>0.2148574568074402</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.215276776416552</v>
+        <v>0.2159687727894863</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.30237672447564</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1936123040687858</v>
+        <v>0.1936123040687857</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.206519341449055</v>
@@ -1377,7 +1377,7 @@
         <v>0.2543490751360735</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1587286550755239</v>
+        <v>0.158728655075524</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1122641854836284</v>
+        <v>0.1127828223574805</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1506382640514472</v>
+        <v>0.1589824504104476</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1556222331817671</v>
+        <v>0.1562409865227178</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09754208435559757</v>
+        <v>0.09801284676754933</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2064162216776693</v>
+        <v>0.2060017870753061</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2338547139541911</v>
+        <v>0.2315607892390436</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.249124629875076</v>
+        <v>0.2441022185427585</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1631534272445485</v>
+        <v>0.1608386903315556</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1731473482953028</v>
+        <v>0.1733837263070712</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2058439052220996</v>
+        <v>0.2031788931959739</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2164317289232788</v>
+        <v>0.2155840402375838</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1370831207301261</v>
+        <v>0.13538432225372</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2009968953372075</v>
+        <v>0.202440851315843</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2449967294981105</v>
+        <v>0.252967980816296</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2576925685844101</v>
+        <v>0.2615636808180135</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1596007427990244</v>
+        <v>0.1622369314588804</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3105942831709898</v>
+        <v>0.3159123191702483</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3415574822889717</v>
+        <v>0.3424521486332863</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3670718166777802</v>
+        <v>0.3658804035791843</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2304311589285686</v>
+        <v>0.2295195822976234</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2403488847090469</v>
+        <v>0.2387900506549838</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2775583813855598</v>
+        <v>0.2753098176682071</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.298551521944088</v>
+        <v>0.2926108461004862</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1830307235596822</v>
+        <v>0.1816220364220741</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1294568501753754</v>
+        <v>0.1248969383459312</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1035408308829872</v>
+        <v>0.1026169203219056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1345092213716944</v>
+        <v>0.1342111278091988</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1388177665603209</v>
+        <v>0.1381057908759135</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1997090076245598</v>
+        <v>0.1997092068810866</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2207110527407194</v>
+        <v>0.2183339066583411</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1986162779978036</v>
+        <v>0.1992564489312942</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2270175016858661</v>
+        <v>0.2284988547644327</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1720403047228544</v>
+        <v>0.1706660567557472</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1717835687583898</v>
+        <v>0.1686014528596889</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1764485348731502</v>
+        <v>0.1773236971438505</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1915226649865579</v>
+        <v>0.1920077580466421</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1843185851875531</v>
+        <v>0.1829436310746313</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1564632962422432</v>
+        <v>0.1575122971228157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1931694281166407</v>
+        <v>0.1919687254901073</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1962063346684289</v>
+        <v>0.1963554392544755</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2658364955648095</v>
+        <v>0.2666470520602369</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2915702500805766</v>
+        <v>0.2879743459151668</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2661101138566284</v>
+        <v>0.264072213580908</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.280173326153222</v>
+        <v>0.2832501620747787</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2150535227194763</v>
+        <v>0.2152272811492118</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2164057962014854</v>
+        <v>0.2146534718986795</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2228989338010634</v>
+        <v>0.2218791930934529</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2320943715804388</v>
+        <v>0.2325193165959606</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1954533233406345</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2325922606157518</v>
+        <v>0.2325922606157519</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1910263651476546</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1206771376384807</v>
+        <v>0.1227393564481323</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1326727697897987</v>
+        <v>0.1361628426373502</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.100902649537014</v>
+        <v>0.09914975009070179</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1064727282780992</v>
+        <v>0.104964722887233</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2033435590228822</v>
+        <v>0.2050569382324933</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1920560866224219</v>
+        <v>0.1922008915962396</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.166173895075616</v>
+        <v>0.1682862093945537</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2060092248201484</v>
+        <v>0.2084780709523585</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1712189682446409</v>
+        <v>0.1724016452952453</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1721240711516269</v>
+        <v>0.170416040790412</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1406746625907274</v>
+        <v>0.1400375839201257</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1647054024706675</v>
+        <v>0.1646472030567742</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1736568151055452</v>
+        <v>0.1731419777941604</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1895651741172374</v>
+        <v>0.190979324605859</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.146643182249845</v>
+        <v>0.1478795975051976</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1497646676735165</v>
+        <v>0.1490295804337295</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2643249886940126</v>
+        <v>0.2662579355724647</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2527924677685999</v>
+        <v>0.2541987795417404</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2255115746093508</v>
+        <v>0.2284528732266637</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2571007005355085</v>
+        <v>0.2575104005374704</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2101866422937962</v>
+        <v>0.2126411957410351</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2124421282952338</v>
+        <v>0.2125640708123709</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.18007965855741</v>
+        <v>0.1792933015764738</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.198810094895351</v>
+        <v>0.1973422785071597</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1273777890994579</v>
+        <v>0.127714919808469</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1438958638040109</v>
+        <v>0.1425515738319594</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1338623772085473</v>
+        <v>0.1322966789401519</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1386707976300339</v>
+        <v>0.1379379976156654</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2178241037258363</v>
+        <v>0.2189875611942221</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2433461184239743</v>
+        <v>0.2427851111651073</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2140080886580599</v>
+        <v>0.2135107452097412</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.216272357980869</v>
+        <v>0.2157369491859938</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1776327792959622</v>
+        <v>0.1775911393211849</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1976609759753816</v>
+        <v>0.1976599241916807</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1774476711709526</v>
+        <v>0.1786152372698099</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1820485703612763</v>
+        <v>0.1816274771408682</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1509213567591329</v>
+        <v>0.1524888260898279</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1704702814921175</v>
+        <v>0.1688621731643159</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1572996235297118</v>
+        <v>0.1567460727131439</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1614587830849824</v>
+        <v>0.1622479313802517</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2463302260934824</v>
+        <v>0.2473780541870226</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2734786973106867</v>
+        <v>0.2727064119205808</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2438195875616229</v>
+        <v>0.2436988187748747</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2377961938187506</v>
+        <v>0.239645876074715</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1964319400959227</v>
+        <v>0.1960979880861581</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2177036969496329</v>
+        <v>0.2179966665043616</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1984322196386675</v>
+        <v>0.1966793085768688</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1982049511783559</v>
+        <v>0.1977842460381796</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32364</v>
+        <v>30869</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34183</v>
+        <v>34670</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>38221</v>
+        <v>39993</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33972</v>
+        <v>35207</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>37021</v>
+        <v>37543</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>61837</v>
+        <v>61722</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>62714</v>
+        <v>64414</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>48460</v>
+        <v>48856</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>75601</v>
+        <v>73535</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>104256</v>
+        <v>103154</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>111595</v>
+        <v>111192</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>91092</v>
+        <v>88801</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>56145</v>
+        <v>55140</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>59958</v>
+        <v>61730</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>66606</v>
+        <v>68482</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56812</v>
+        <v>58465</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>62547</v>
+        <v>64173</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>92275</v>
+        <v>93629</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>93199</v>
+        <v>95686</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>68701</v>
+        <v>68809</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>111009</v>
+        <v>109108</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>144847</v>
+        <v>145884</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>153216</v>
+        <v>152904</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>118517</v>
+        <v>118471</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>52011</v>
+        <v>53433</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60414</v>
+        <v>58764</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47201</v>
+        <v>45416</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>79149</v>
+        <v>81201</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>106062</v>
+        <v>105994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>115850</v>
+        <v>116651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>93841</v>
+        <v>93398</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>118780</v>
+        <v>118376</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>167969</v>
+        <v>167054</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>184851</v>
+        <v>186145</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>147629</v>
+        <v>149107</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>208899</v>
+        <v>207378</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>84984</v>
+        <v>85117</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>95762</v>
+        <v>95411</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>75957</v>
+        <v>75435</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>118172</v>
+        <v>119686</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>144089</v>
+        <v>145070</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>157406</v>
+        <v>155581</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>132731</v>
+        <v>132257</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>151841</v>
+        <v>151448</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>215307</v>
+        <v>216051</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>240660</v>
+        <v>239698</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>197281</v>
+        <v>197319</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>258573</v>
+        <v>259305</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25989</v>
+        <v>26630</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39579</v>
+        <v>40187</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30484</v>
+        <v>32010</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35207</v>
+        <v>35599</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>69786</v>
+        <v>70927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>64747</v>
+        <v>63182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>49009</v>
+        <v>49735</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>58464</v>
+        <v>58358</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>103164</v>
+        <v>102937</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>110656</v>
+        <v>109939</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>87551</v>
+        <v>86935</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>96401</v>
+        <v>97732</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>48317</v>
+        <v>50603</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>67123</v>
+        <v>68042</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53546</v>
+        <v>53824</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>55814</v>
+        <v>55913</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>102218</v>
+        <v>100909</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>96320</v>
+        <v>95826</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>80449</v>
+        <v>80720</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>81062</v>
+        <v>81088</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>142498</v>
+        <v>141608</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>150591</v>
+        <v>151598</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>125768</v>
+        <v>124587</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>128851</v>
+        <v>129266</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34143</v>
+        <v>34698</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45474</v>
+        <v>45516</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>43149</v>
+        <v>43363</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>50912</v>
+        <v>50025</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>70879</v>
+        <v>70205</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>101639</v>
+        <v>103934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>85545</v>
+        <v>85640</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>75889</v>
+        <v>76852</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>114165</v>
+        <v>113911</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>156592</v>
+        <v>159175</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>136967</v>
+        <v>136503</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>134243</v>
+        <v>133093</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>58848</v>
+        <v>60692</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>75535</v>
+        <v>75230</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>70863</v>
+        <v>71288</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82797</v>
+        <v>81881</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>101447</v>
+        <v>103380</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>139782</v>
+        <v>141529</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>121359</v>
+        <v>122462</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>102998</v>
+        <v>103262</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>153261</v>
+        <v>153092</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>203962</v>
+        <v>205225</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>182947</v>
+        <v>184451</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>175141</v>
+        <v>174629</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11789</v>
+        <v>11247</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26366</v>
+        <v>26786</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18558</v>
+        <v>18108</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17255</v>
+        <v>17527</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28822</v>
+        <v>28634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>53021</v>
+        <v>53252</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>35088</v>
+        <v>36780</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>49962</v>
+        <v>49189</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>44321</v>
+        <v>45186</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>86537</v>
+        <v>87262</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>59922</v>
+        <v>60761</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>71443</v>
+        <v>70976</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27827</v>
+        <v>27865</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>50747</v>
+        <v>50236</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>36885</v>
+        <v>37038</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31780</v>
+        <v>31074</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>52060</v>
+        <v>52450</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>81353</v>
+        <v>81659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>60479</v>
+        <v>60842</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>67896</v>
+        <v>67526</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>72286</v>
+        <v>73005</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>121878</v>
+        <v>123787</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>91048</v>
+        <v>92347</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>93418</v>
+        <v>93719</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>30402</v>
+        <v>30543</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>41272</v>
+        <v>43558</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>40948</v>
+        <v>41111</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26405</v>
+        <v>26533</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>57413</v>
+        <v>57298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>65232</v>
+        <v>64592</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>68040</v>
+        <v>66668</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>43032</v>
+        <v>42421</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>95050</v>
+        <v>95180</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>113816</v>
+        <v>112343</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>116059</v>
+        <v>115604</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>73265</v>
+        <v>72357</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>54432</v>
+        <v>54823</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>67124</v>
+        <v>69308</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>67805</v>
+        <v>68823</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43205</v>
+        <v>43919</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>86390</v>
+        <v>87869</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>95275</v>
+        <v>95525</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>100253</v>
+        <v>99927</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>60776</v>
+        <v>60536</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>131941</v>
+        <v>131085</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>153469</v>
+        <v>152226</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>160095</v>
+        <v>156909</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>97822</v>
+        <v>97069</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>79619</v>
+        <v>76815</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>68326</v>
+        <v>67717</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>88313</v>
+        <v>88117</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>99784</v>
+        <v>99272</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>127458</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>153141</v>
+        <v>151492</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>137302</v>
+        <v>137745</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>175270</v>
+        <v>176414</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>215609</v>
+        <v>213887</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>232552</v>
+        <v>228244</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>237827</v>
+        <v>239006</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>285535</v>
+        <v>286259</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>113361</v>
+        <v>112515</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>103250</v>
+        <v>103942</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>126827</v>
+        <v>126039</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>141036</v>
+        <v>141143</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>169662</v>
+        <v>170179</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>202307</v>
+        <v>199812</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>183960</v>
+        <v>182552</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>216310</v>
+        <v>218685</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>269515</v>
+        <v>269733</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>292959</v>
+        <v>290587</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>300435</v>
+        <v>299060</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>346023</v>
+        <v>346656</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>89759</v>
+        <v>91293</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>103228</v>
+        <v>105944</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>78561</v>
+        <v>77196</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>84973</v>
+        <v>83769</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>159322</v>
+        <v>160664</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>158226</v>
+        <v>158345</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>137287</v>
+        <v>139033</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>171262</v>
+        <v>173314</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>261504</v>
+        <v>263310</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>275729</v>
+        <v>272993</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>225748</v>
+        <v>224725</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>268371</v>
+        <v>268277</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>129165</v>
+        <v>128782</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>147495</v>
+        <v>148595</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>114174</v>
+        <v>115137</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>119523</v>
+        <v>118936</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>207102</v>
+        <v>208616</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>208264</v>
+        <v>209422</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>186310</v>
+        <v>188740</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>213736</v>
+        <v>214076</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>321019</v>
+        <v>324768</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>340316</v>
+        <v>340511</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>288983</v>
+        <v>287721</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>323942</v>
+        <v>321550</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>417359</v>
+        <v>418463</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>492535</v>
+        <v>487934</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>454376</v>
+        <v>449061</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>489770</v>
+        <v>487182</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>736071</v>
+        <v>740002</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>865636</v>
+        <v>863641</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>758561</v>
+        <v>756798</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>807938</v>
+        <v>805938</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1182278</v>
+        <v>1182001</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1379689</v>
+        <v>1379682</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1231290</v>
+        <v>1239392</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1323061</v>
+        <v>1320001</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>494500</v>
+        <v>499636</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>583496</v>
+        <v>577991</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>533930</v>
+        <v>532051</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>570254</v>
+        <v>573042</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>832398</v>
+        <v>835939</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>972824</v>
+        <v>970077</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>864229</v>
+        <v>863801</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>888345</v>
+        <v>895255</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1307400</v>
+        <v>1305177</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1519589</v>
+        <v>1521634</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1376900</v>
+        <v>1364736</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1440480</v>
+        <v>1437423</v>
       </c>
     </row>
     <row r="40">
